--- a/MASTER DATA.xlsx
+++ b/MASTER DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\react_js\managementmilaphone\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DEDDA3-2E3C-421C-BDA0-316F4F3492E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4A115-4434-4C78-A4B5-D6DAA7E546A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BAE40223-36BB-4D68-8D94-1ABF4F2D897D}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{BAE40223-36BB-4D68-8D94-1ABF4F2D897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1458,8 +1458,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1485,7 +1485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1495,6 +1495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,7 +1533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1536,35 +1542,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2874,8 +2894,8 @@
   <dimension ref="A1:J391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4299,35 +4319,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="20">
         <v>3899000</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="20">
         <v>3600000</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="20">
         <v>3500000</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="21">
         <v>3300000</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4947,163 +4967,163 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="20">
         <v>2999000</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="20">
         <v>2700000</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="20">
         <v>3000000</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="21">
         <v>2350000</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="20">
         <v>3399000</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="20">
         <v>3100000</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="20">
         <v>3000000</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="21">
         <v>2741700</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="20">
         <v>3699000</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="20">
         <v>3400000</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="20">
         <v>3200000</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="21">
         <v>2998400</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="20">
         <v>4999000</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="20">
         <v>4700000</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="20">
         <v>4400000</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="21">
         <v>4111495</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="20">
         <v>4999000</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="20">
         <v>4700000</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="20">
         <v>4400000</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="21">
         <v>4111495</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I70" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5427,163 +5447,163 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="20">
         <v>3399000</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="20">
         <v>3100000</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="20">
         <v>3000000</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="21">
         <v>2990000</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I81" s="14" t="s">
+      <c r="I81" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="20">
         <v>3399000</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="20">
         <v>3100000</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="20">
         <v>3000000</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="21">
         <v>2990000</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I82" s="14" t="s">
+      <c r="I82" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="20">
         <v>3399000</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="20">
         <v>3100000</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="20">
         <v>3000000</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="21">
         <v>2990000</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I83" s="14" t="s">
+      <c r="I83" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="20">
         <v>3399000</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="20">
         <v>3100000</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="20">
         <v>3000000</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="21">
         <v>2990000</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I84" s="14" t="s">
+      <c r="I84" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="25">
         <v>3799000</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="25">
         <v>3500000</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="25">
         <v>3400000</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="21">
         <v>3300000</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I85" s="14" t="s">
+      <c r="I85" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="19" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6419,447 +6439,447 @@
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="20">
         <v>9399000</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="20">
         <v>9000000</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="20">
         <v>8700000</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="21">
         <v>7500000</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H112" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I112" s="14" t="s">
+      <c r="I112" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="20">
         <v>9399000</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="20">
         <v>9000000</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="20">
         <v>8700000</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="21">
         <v>7500000</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I113" s="14" t="s">
+      <c r="I113" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="20">
         <v>18199000</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="20">
         <v>17600000</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="20">
         <v>17200000</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="21">
         <v>16000000</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H114" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I114" s="14" t="s">
+      <c r="I114" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J114" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="20">
         <v>18199000</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="20">
         <v>17600000</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="20">
         <v>17200000</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="21">
         <v>16000000</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I115" s="14" t="s">
+      <c r="I115" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="20">
         <v>18199000</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="20">
         <v>17600000</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="20">
         <v>17200000</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="21">
         <v>16000000</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H116" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I116" s="14" t="s">
+      <c r="I116" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="20">
         <v>8599000</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="20">
         <v>8200000</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="20">
         <v>8000000</v>
       </c>
-      <c r="G117" s="12">
+      <c r="G117" s="21">
         <v>6000000</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+    </row>
+    <row r="118" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="20">
         <v>6999000</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="20">
         <v>6600000</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="20">
         <v>6000000</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G118" s="21">
         <v>6000000</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H118" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I118" s="14" t="s">
+      <c r="I118" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="J118" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="20">
         <v>8599000</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="20">
         <v>8200000</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="20">
         <v>8000000</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="21">
         <v>7500000</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H119" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I119" s="14" t="s">
+      <c r="I119" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="J119" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="20">
         <v>10499000</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="20">
         <v>10000000</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="20">
         <v>9800000</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G120" s="21">
         <v>9199000</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="H120" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I120" s="14" t="s">
+      <c r="I120" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="20">
         <v>10499000</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="20">
         <v>10000000</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="20">
         <v>9800000</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G121" s="21">
         <v>9199000</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="H121" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I121" s="14" t="s">
+      <c r="I121" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="20">
         <v>10499000</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="20">
         <v>10000000</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="20">
         <v>9800000</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="21">
         <v>9199000</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="H122" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I122" s="14" t="s">
+      <c r="I122" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="20">
         <v>10499000</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="20">
         <v>10000000</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="20">
         <v>9800000</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G123" s="21">
         <v>9199000</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="H123" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I123" s="14" t="s">
+      <c r="I123" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="20">
         <v>10999000</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="20">
         <v>10500000</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="20">
         <v>10200000</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G124" s="21">
         <v>9399000</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="H124" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I124" s="14" t="s">
+      <c r="I124" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="J124" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="20">
         <v>10999000</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="20">
         <v>10500000</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="20">
         <v>10200000</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="21">
         <v>9399000</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="H125" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I125" s="14" t="s">
+      <c r="I125" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7151,183 +7171,183 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C135" s="2" t="s">
+      <c r="B135" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="20">
         <v>1699000</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="20">
         <v>1635000</v>
       </c>
-      <c r="F135" s="2"/>
-      <c r="G135" s="8">
+      <c r="F135" s="19"/>
+      <c r="G135" s="20">
         <v>1581000</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="H135" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I135" s="14" t="s">
+      <c r="I135" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C136" s="2" t="s">
+      <c r="B136" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="20">
         <v>1699000</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="20">
         <v>1635000</v>
       </c>
-      <c r="F136" s="2"/>
-      <c r="G136" s="8">
+      <c r="F136" s="19"/>
+      <c r="G136" s="20">
         <v>1581000</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="H136" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I136" s="14" t="s">
+      <c r="I136" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C137" s="2" t="s">
+      <c r="B137" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C137" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="20">
         <v>1999000</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="20">
         <v>1885000</v>
       </c>
-      <c r="F137" s="2"/>
-      <c r="G137" s="8">
+      <c r="F137" s="19"/>
+      <c r="G137" s="20">
         <v>1889000</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="H137" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I137" s="14" t="s">
+      <c r="I137" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="J137" s="2" t="s">
+      <c r="J137" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="2" t="s">
+      <c r="B138" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="20">
         <v>1999000</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="20">
         <v>1885000</v>
       </c>
-      <c r="F138" s="2"/>
-      <c r="G138" s="8">
+      <c r="F138" s="19"/>
+      <c r="G138" s="20">
         <v>1889000</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="H138" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I138" s="14" t="s">
+      <c r="I138" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C139" s="2" t="s">
+      <c r="B139" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="20">
         <v>1999000</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="20">
         <v>1885000</v>
       </c>
-      <c r="F139" s="2"/>
-      <c r="G139" s="8">
+      <c r="F139" s="19"/>
+      <c r="G139" s="20">
         <v>1889000</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="H139" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I139" s="14" t="s">
+      <c r="I139" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C140" s="2" t="s">
+      <c r="B140" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C140" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="20">
         <v>2599000</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="20">
         <v>2470000</v>
       </c>
-      <c r="F140" s="2"/>
-      <c r="G140" s="8">
+      <c r="F140" s="19"/>
+      <c r="G140" s="20">
         <v>2519000</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="H140" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I140" s="14" t="s">
+      <c r="I140" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="19" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8235,153 +8255,153 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="171" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="2" t="s">
+      <c r="B171" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="20">
         <v>1349000</v>
       </c>
-      <c r="E171" s="5">
+      <c r="E171" s="20">
         <v>1285000</v>
       </c>
-      <c r="F171" s="2"/>
-      <c r="G171" s="8">
+      <c r="F171" s="19"/>
+      <c r="G171" s="20">
         <v>1261000</v>
       </c>
-      <c r="H171" s="2" t="s">
+      <c r="H171" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="I171" s="14" t="s">
+      <c r="I171" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="J171" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C172" s="2" t="s">
+      <c r="B172" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="20">
         <v>1349000</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="20">
         <v>1285000</v>
       </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="8">
+      <c r="F172" s="19"/>
+      <c r="G172" s="20">
         <v>1261000</v>
       </c>
-      <c r="H172" s="2" t="s">
+      <c r="H172" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="I172" s="14" t="s">
+      <c r="I172" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="J172" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C173" s="2" t="s">
+      <c r="B173" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C173" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="20">
         <v>1499000</v>
       </c>
-      <c r="E173" s="5">
+      <c r="E173" s="20">
         <v>1435000</v>
       </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="8">
+      <c r="F173" s="19"/>
+      <c r="G173" s="20">
         <v>1409000</v>
       </c>
-      <c r="H173" s="2" t="s">
+      <c r="H173" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="I173" s="14" t="s">
+      <c r="I173" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="J173" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C174" s="2" t="s">
+      <c r="B174" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C174" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="20">
         <v>1499000</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E174" s="20">
         <v>1435000</v>
       </c>
-      <c r="F174" s="2"/>
-      <c r="G174" s="8">
+      <c r="F174" s="19"/>
+      <c r="G174" s="20">
         <v>1409000</v>
       </c>
-      <c r="H174" s="2" t="s">
+      <c r="H174" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="I174" s="14" t="s">
+      <c r="I174" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="J174" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C175" s="2" t="s">
+      <c r="B175" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C175" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="20">
         <v>1599000</v>
       </c>
-      <c r="E175" s="5">
+      <c r="E175" s="20">
         <v>1535000</v>
       </c>
-      <c r="F175" s="2"/>
-      <c r="G175" s="8">
+      <c r="F175" s="19"/>
+      <c r="G175" s="20">
         <v>1487000</v>
       </c>
-      <c r="H175" s="2" t="s">
+      <c r="H175" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="I175" s="14" t="s">
+      <c r="I175" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="19" t="s">
         <v>286</v>
       </c>
     </row>
@@ -13730,151 +13750,151 @@
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
+    <row r="355" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C355" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D355" s="15">
+      <c r="D355" s="26">
         <v>200000</v>
       </c>
-      <c r="E355" s="17">
+      <c r="E355" s="26">
         <v>170000</v>
       </c>
-      <c r="F355" s="2"/>
-      <c r="G355" s="12">
+      <c r="F355" s="19"/>
+      <c r="G355" s="21">
         <v>85000</v>
       </c>
-      <c r="H355" s="18" t="s">
+      <c r="H355" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="I355" s="14" t="s">
+      <c r="I355" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="J355" s="2" t="s">
+      <c r="J355" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+    <row r="356" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C356" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D356" s="15">
+      <c r="D356" s="26">
         <v>300000</v>
       </c>
-      <c r="E356" s="17">
+      <c r="E356" s="26">
         <v>270000</v>
       </c>
-      <c r="F356" s="2"/>
-      <c r="G356" s="12">
+      <c r="F356" s="19"/>
+      <c r="G356" s="21">
         <v>92000</v>
       </c>
-      <c r="H356" s="18" t="s">
+      <c r="H356" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="I356" s="14" t="s">
+      <c r="I356" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="J356" s="2" t="s">
+      <c r="J356" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
+    <row r="357" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C357" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D357" s="15">
+      <c r="D357" s="26">
         <v>350000</v>
       </c>
-      <c r="E357" s="17">
+      <c r="E357" s="26">
         <v>300000</v>
       </c>
-      <c r="F357" s="2"/>
-      <c r="G357" s="12">
+      <c r="F357" s="19"/>
+      <c r="G357" s="21">
         <v>113000</v>
       </c>
-      <c r="H357" s="18" t="s">
+      <c r="H357" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="I357" s="14" t="s">
+      <c r="I357" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="J357" s="2" t="s">
+      <c r="J357" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
+    <row r="358" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C358" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D358" s="15">
+      <c r="D358" s="26">
         <v>450000</v>
       </c>
-      <c r="E358" s="17">
+      <c r="E358" s="26">
         <v>400000</v>
       </c>
-      <c r="F358" s="2"/>
-      <c r="G358" s="12">
+      <c r="F358" s="19"/>
+      <c r="G358" s="21">
         <v>180000</v>
       </c>
-      <c r="H358" s="18" t="s">
+      <c r="H358" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="I358" s="14" t="s">
+      <c r="I358" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="J358" s="2" t="s">
+      <c r="J358" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
+    <row r="359" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D359" s="15">
+      <c r="D359" s="26">
         <v>400000</v>
       </c>
-      <c r="E359" s="17">
+      <c r="E359" s="26">
         <v>300000</v>
       </c>
-      <c r="F359" s="2"/>
-      <c r="G359" s="12">
+      <c r="F359" s="19"/>
+      <c r="G359" s="21">
         <v>280000</v>
       </c>
-      <c r="H359" s="2" t="s">
+      <c r="H359" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I359" s="2"/>
-      <c r="J359" s="2"/>
+      <c r="I359" s="19"/>
+      <c r="J359" s="19"/>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
@@ -14716,57 +14736,57 @@
         <v>186</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
+    <row r="390" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C390" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D390" s="15">
+      <c r="D390" s="26">
         <v>40000</v>
       </c>
-      <c r="E390" s="12">
+      <c r="E390" s="21">
         <v>35000</v>
       </c>
-      <c r="F390" s="12"/>
-      <c r="G390" s="12">
+      <c r="F390" s="21"/>
+      <c r="G390" s="21">
         <v>20000</v>
       </c>
-      <c r="H390" s="2" t="s">
+      <c r="H390" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I390" s="2"/>
-      <c r="J390" s="2"/>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
+      <c r="I390" s="19"/>
+      <c r="J390" s="19"/>
+    </row>
+    <row r="391" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C391" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D391" s="15">
+      <c r="D391" s="26">
         <v>35000</v>
       </c>
-      <c r="E391" s="12">
+      <c r="E391" s="21">
         <v>30000</v>
       </c>
-      <c r="F391" s="12"/>
-      <c r="G391" s="12">
+      <c r="F391" s="21"/>
+      <c r="G391" s="21">
         <v>17000</v>
       </c>
-      <c r="H391" s="2" t="s">
+      <c r="H391" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I391" s="2"/>
-      <c r="J391" s="2"/>
+      <c r="I391" s="19"/>
+      <c r="J391" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C171">
